--- a/data/transformed_data_2006.xlsx
+++ b/data/transformed_data_2006.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>290546.4341365576</v>
+        <v>295351.1781365576</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>41386.38</v>
+        <v>35592.28679999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7066.78</v>
+        <v>6077.4308</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5115,7 +5115,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12941.53168876245</v>
+        <v>12784.71208876245</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5451,7 +5451,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>53.9</v>
+        <v>46.354</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1174.04</v>
+        <v>1009.6744</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7830,7 +7830,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>26684.12201308677</v>
+        <v>27425.55081308677</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8166,7 +8166,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>13479.9</v>
+        <v>11592.714</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8334,7 +8334,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8183.98</v>
+        <v>7038.2228</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17839.20570128023</v>
+        <v>17839.89170128022</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1782.62</v>
+        <v>1533.0532</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11077,7 +11077,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1777.72</v>
+        <v>1528.8392</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13302,7 +13302,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16019.16592773826</v>
+        <v>16093.25392773827</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13638,7 +13638,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8730.82</v>
+        <v>7508.5052</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13806,7 +13806,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8201.619999999999</v>
+        <v>7053.3932</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16045,7 +16045,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5519.614799999998</v>
+        <v>5459.658399999998</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16381,7 +16381,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>213.64</v>
+        <v>183.7304</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16549,7 +16549,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>641.9</v>
+        <v>552.034</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18788,7 +18788,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16111.86068449502</v>
+        <v>15867.91908449502</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19124,7 +19124,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>11352.32</v>
+        <v>9762.995199999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19292,7 +19292,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>13094.76</v>
+        <v>11261.4936</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21531,7 +21531,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22387.73808307255</v>
+        <v>22260.27928307254</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21867,7 +21867,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6914.88</v>
+        <v>5946.7968</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22035,7 +22035,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7825.3</v>
+        <v>6729.757999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24274,7 +24274,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19287.28300369843</v>
+        <v>18714.47300369843</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24610,7 +24610,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8005.62</v>
+        <v>6884.8332</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24778,7 +24778,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>12097.12</v>
+        <v>10403.5232</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27017,7 +27017,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6415.256762446657</v>
+        <v>6253.909562446657</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27353,7 +27353,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1206.38</v>
+        <v>1037.4868</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27521,7 +27521,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2358.86</v>
+        <v>2028.6196</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29746,7 +29746,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8361.370399431009</v>
+        <v>8459.33119943101</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30082,7 +30082,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6164.2</v>
+        <v>5301.212</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30250,7 +30250,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5464.48</v>
+        <v>4699.4528</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32489,7 +32489,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>40553.93769388335</v>
+        <v>40486.57249388335</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32825,7 +32825,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2598.96</v>
+        <v>2235.1056</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32993,7 +32993,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3080.14</v>
+        <v>2648.9204</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35218,7 +35218,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6591.600081365576</v>
+        <v>6553.321281365575</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35554,7 +35554,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>171.5</v>
+        <v>147.49</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35722,7 +35722,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>444.92</v>
+        <v>382.6312</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37947,7 +37947,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>7654.59190892691</v>
+        <v>7352.75190892691</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38283,7 +38283,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>33.32</v>
+        <v>28.6552</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38451,7 +38451,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2189.32</v>
+        <v>1882.8152</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40676,7 +40676,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3763.929047510668</v>
+        <v>3769.279847510668</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -41012,7 +41012,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3438.82</v>
+        <v>2957.3852</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41180,7 +41180,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3400.6</v>
+        <v>2924.516</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43419,7 +43419,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4411.224958179232</v>
+        <v>4371.025358179232</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43755,7 +43755,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7021.7</v>
+        <v>6038.661999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43923,7 +43923,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7308.84</v>
+        <v>6285.6024</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46162,7 +46162,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>15540.88062190612</v>
+        <v>14847.74622190612</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46498,7 +46498,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6329.82</v>
+        <v>5443.6452</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46666,7 +46666,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11280.78</v>
+        <v>9701.470799999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48905,7 +48905,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4183.351789473684</v>
+        <v>4090.192989473684</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49241,7 +49241,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5069.54</v>
+        <v>4359.8044</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49409,7 +49409,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5734.96</v>
+        <v>4932.0656</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51634,7 +51634,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8275.156607112374</v>
+        <v>7848.327407112376</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51970,7 +51970,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>665.42</v>
+        <v>572.2611999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52138,7 +52138,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3714.2</v>
+        <v>3194.212</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54363,7 +54363,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4834.94801820768</v>
+        <v>4778.421618207682</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54699,7 +54699,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1208.34</v>
+        <v>1039.1724</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54867,7 +54867,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1612.1</v>
+        <v>1386.406</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57092,7 +57092,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6709.349381507823</v>
+        <v>6644.453781507822</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57428,7 +57428,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1454.32</v>
+        <v>1250.7152</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57596,7 +57596,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1917.86</v>
+        <v>1649.3596</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59835,7 +59835,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9545.877106116643</v>
+        <v>9683.625906116644</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60171,7 +60171,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2695.98</v>
+        <v>2318.5428</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60339,7 +60339,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1712.06</v>
+        <v>1472.3716</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62564,7 +62564,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>48591.5982571835</v>
+        <v>51533.8522571835</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62900,7 +62900,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>26824.56</v>
+        <v>23069.1216</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63068,7 +63068,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5808.46</v>
+        <v>4995.2756</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65293,7 +65293,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4571.525802560455</v>
+        <v>4528.445002560455</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65629,7 +65629,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2934.12</v>
+        <v>2523.3432</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65797,7 +65797,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3241.84</v>
+        <v>2787.9824</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68036,7 +68036,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>120319.1200722617</v>
+        <v>117513.9288722617</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68372,7 +68372,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>19418.7</v>
+        <v>16700.082</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68540,7 +68540,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>39455.78</v>
+        <v>33931.9708</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70779,7 +70779,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>47788.85410526316</v>
+        <v>47191.07370526317</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71115,7 +71115,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2597.98</v>
+        <v>2234.2628</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71283,7 +71283,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6867.84</v>
+        <v>5906.3424</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73508,7 +73508,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>31661.31860654338</v>
+        <v>33393.60580654338</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73844,7 +73844,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>15972.04</v>
+        <v>13735.9544</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -74012,7 +74012,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3598.56</v>
+        <v>3094.7616</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76251,7 +76251,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>26503.36484665718</v>
+        <v>27505.47364665718</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76587,7 +76587,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>27241.06</v>
+        <v>23427.3116</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76755,7 +76755,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>20083.14</v>
+        <v>17271.5004</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -78994,7 +78994,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19949.67309329887</v>
+        <v>20216.93869329887</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79330,7 +79330,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4445.28</v>
+        <v>3822.9408</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79498,7 +79498,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2536.24</v>
+        <v>2181.1664</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81737,7 +81737,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13883.87152944524</v>
+        <v>14110.80032944524</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82073,7 +82073,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3289.86</v>
+        <v>2829.2796</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82241,7 +82241,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1668.94</v>
+        <v>1435.2884</v>
       </c>
     </row>
     <row r="168" spans="1:4">
